--- a/ResultsTransformation/Map/Villes/argenta.xlsx
+++ b/ResultsTransformation/Map/Villes/argenta.xlsx
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
